--- a/example/cafe_excel_03.xlsx
+++ b/example/cafe_excel_03.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="人口10万人あたりを計算して追加" sheetId="1" r:id="rId1"/>
     <sheet name="人口10万人あたりで見ると" sheetId="8" r:id="rId2"/>
     <sheet name="都道府県の人口×３チェーン" sheetId="3" r:id="rId3"/>
     <sheet name="D×K傾向の違いは" sheetId="6" r:id="rId4"/>
-    <sheet name="D×S傾向の違いは" sheetId="7" r:id="rId5"/>
-    <sheet name="D×S傾向の違いは (2)" sheetId="9" r:id="rId6"/>
-    <sheet name="取り込んだデータの控え" sheetId="2" r:id="rId7"/>
+    <sheet name="D×K（10万人あたり）" sheetId="10" r:id="rId5"/>
+    <sheet name="D×S傾向の違いは" sheetId="7" r:id="rId6"/>
+    <sheet name="D×S（10万人あたり）" sheetId="9" r:id="rId7"/>
+    <sheet name="取り込んだデータの控え" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="cafe_data" localSheetId="6">取り込んだデータの控え!$A$1:$G$49</definedName>
+    <definedName name="cafe_data" localSheetId="7">取り込んだデータの控え!$A$1:$G$49</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -1213,11 +1214,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="416982936"/>
-        <c:axId val="416985288"/>
+        <c:axId val="416760464"/>
+        <c:axId val="416759288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="416982936"/>
+        <c:axId val="416760464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1331,12 +1332,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="416985288"/>
+        <c:crossAx val="416759288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="416985288"/>
+        <c:axId val="416759288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1453,7 +1454,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="416982936"/>
+        <c:crossAx val="416760464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2631,11 +2632,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="420077008"/>
-        <c:axId val="420078184"/>
+        <c:axId val="416760072"/>
+        <c:axId val="416763600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="420077008"/>
+        <c:axId val="416760072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2748,12 +2749,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420078184"/>
+        <c:crossAx val="416763600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="420078184"/>
+        <c:axId val="416763600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2866,7 +2867,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420077008"/>
+        <c:crossAx val="416760072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3077,8 +3078,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EDC3EA4A-BBED-4DFC-8399-45ADE26921EA}" type="CELLRANGE">
-                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                    <a:fld id="{A0994CBE-9203-4C63-B0F1-54E6F9169DD6}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -3109,7 +3110,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C3336E42-D068-4F4C-B604-7DC9FB8BB0CA}" type="CELLRANGE">
+                    <a:fld id="{2C3B0C6A-A044-4327-B086-1D85A69E63B7}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3129,6 +3130,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -3141,7 +3143,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{84722E6C-26EA-4F78-A9B2-EA19EC6D989E}" type="CELLRANGE">
+                    <a:fld id="{867761F7-11B1-4AAF-B374-CFE47F7F5C7D}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3161,6 +3163,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -3173,7 +3176,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{726234CD-CF55-4A89-BC22-2BF666975B7B}" type="CELLRANGE">
+                    <a:fld id="{74D19664-3492-420D-99C3-E6B52A4EDCCA}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3193,6 +3196,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -3205,7 +3209,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F354FE1C-EA88-43C3-A027-2181A226A506}" type="CELLRANGE">
+                    <a:fld id="{6D1A8D9A-2E5B-4013-84E8-E328BCE20938}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3225,6 +3229,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -3237,7 +3242,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C0865545-6DE7-48CF-BB5B-23E22E152D4D}" type="CELLRANGE">
+                    <a:fld id="{1A389A82-86D9-43FA-B72A-E1884BFD715F}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3257,6 +3262,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -3269,7 +3275,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7DBAE9BC-DDF7-4523-83C4-CC54FE982EC7}" type="CELLRANGE">
+                    <a:fld id="{BF8C88B9-83B4-475C-975E-FD963A5E5066}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3289,6 +3295,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -3301,7 +3308,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D0A6DB26-E9A9-4459-8B9E-BC1A2337E0F8}" type="CELLRANGE">
+                    <a:fld id="{912D54E8-BDDF-4E45-8458-1310537D6C56}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3321,6 +3328,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -3333,7 +3341,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E127EC0F-C75D-49E6-822B-A25D1606B7B1}" type="CELLRANGE">
+                    <a:fld id="{F643BA79-78A8-4486-A25E-38AE6886C8F3}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3353,6 +3361,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -3365,7 +3374,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{60E9BDD5-6EA7-47D8-8278-50AC1D434EC1}" type="CELLRANGE">
+                    <a:fld id="{F7552A32-E77D-4F75-8213-66CEE804B76F}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3385,6 +3394,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -3397,7 +3407,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4D347414-4890-4CE1-B8C5-3B7E7A66A406}" type="CELLRANGE">
+                    <a:fld id="{F73D0572-0C18-4756-A01D-1B15D0ADD429}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3417,6 +3427,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -3429,7 +3440,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A707F42C-BFDF-41D7-91AC-347AD263450E}" type="CELLRANGE">
+                    <a:fld id="{C67D96D5-0CA6-48D3-BBD3-16956B7000A0}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3449,6 +3460,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -3461,7 +3473,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{86CAD00F-233D-4F64-A2E8-57F3530407E0}" type="CELLRANGE">
+                    <a:fld id="{64B675D6-D70A-4809-B390-EFA2B643903B}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3481,6 +3493,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -3493,7 +3506,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DC82D722-3289-4D96-A1BA-EA812D062607}" type="CELLRANGE">
+                    <a:fld id="{EC1C9EF3-1D20-49C3-8B6E-EF63AF813671}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3513,6 +3526,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -3525,7 +3539,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6F03EA54-D443-4437-93A5-0D708C8D1C79}" type="CELLRANGE">
+                    <a:fld id="{67D8B551-595B-4B85-A18F-AA3612D69B9D}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3545,6 +3559,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -3557,7 +3572,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D89C845B-DD6A-41D0-B000-FDB0A536B72B}" type="CELLRANGE">
+                    <a:fld id="{E7A0A932-7E75-48B9-A4BD-9D8211129029}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3577,6 +3592,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -3589,7 +3605,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DE2CF792-F531-4BE1-B524-81A8B9E9788A}" type="CELLRANGE">
+                    <a:fld id="{0D1501B9-E3B9-4FF5-8BBF-CDD74E2431E9}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3609,6 +3625,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -3621,7 +3638,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6B3BB1CB-446F-4F01-AB14-CEA85A90215A}" type="CELLRANGE">
+                    <a:fld id="{CAE9277F-2826-4B0F-928C-16EAFDA84398}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3641,6 +3658,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -3653,7 +3671,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{87D03B99-FC1E-4AC2-B082-08A270A0597A}" type="CELLRANGE">
+                    <a:fld id="{358DADDD-7386-4229-9531-B7FB5CCFA414}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3673,6 +3691,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -3685,7 +3704,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{49C823AB-589B-4BB7-AF3F-33494A993765}" type="CELLRANGE">
+                    <a:fld id="{72492EAA-64B3-43B1-83D7-DA0D7D160F85}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3705,6 +3724,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -3717,7 +3737,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{80AB4623-27A0-4280-97BD-9D9D6F007ADB}" type="CELLRANGE">
+                    <a:fld id="{4216FFB9-026F-4EE4-9C80-37994932BF2C}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3737,6 +3757,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -3749,7 +3770,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A12C1F8B-952E-43E0-8ACC-2657CF91B0BB}" type="CELLRANGE">
+                    <a:fld id="{85243C9B-8405-40DA-9C9B-4C12E80E178A}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3769,6 +3790,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -3781,7 +3803,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F1B0A89B-C4C3-48DC-802F-B02AED1F62D7}" type="CELLRANGE">
+                    <a:fld id="{FA338CF8-2E11-40CE-9329-179C7CAC65F4}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3801,6 +3823,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -3813,7 +3836,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DAF90337-42BB-4510-89CA-D949D7AE036D}" type="CELLRANGE">
+                    <a:fld id="{1479F158-7805-4F43-81DA-588D94E6ED44}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3833,6 +3856,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -3845,7 +3869,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CBD992F5-B708-422D-A3BA-6C34C5C232C9}" type="CELLRANGE">
+                    <a:fld id="{85C97F66-3B6D-491A-A72B-64673BBC6FDD}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3865,6 +3889,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -3877,7 +3902,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{84F101CB-8FB0-4AE0-9D47-FD81B07BB24E}" type="CELLRANGE">
+                    <a:fld id="{E9AA93B1-7A6D-4CA1-B47B-CF4EEF34D8BE}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3897,6 +3922,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -3909,7 +3935,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DC8F46CE-5381-456C-A993-65826C73AF3E}" type="CELLRANGE">
+                    <a:fld id="{36978B3C-9ADE-4815-8650-41BB04FEE7B3}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3929,6 +3955,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -3941,7 +3968,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D09A00C0-1C90-4222-ABBD-F51BAD0F766F}" type="CELLRANGE">
+                    <a:fld id="{1854F1C3-5F60-489B-8C23-2999B9D47E22}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3961,6 +3988,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -3973,7 +4001,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{10971862-43D6-4A6C-ACB1-431CA074C9C0}" type="CELLRANGE">
+                    <a:fld id="{C85943E2-3C03-47F1-8CD4-B939F7397511}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3993,6 +4021,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -4005,7 +4034,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{844A8918-FF86-4C65-BE3C-54C9E500290D}" type="CELLRANGE">
+                    <a:fld id="{463B4C73-EC19-4F76-B938-627278C7CB39}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4025,6 +4054,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -4037,7 +4067,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{120A08FA-5C60-4D54-BB48-A05160ACCEAD}" type="CELLRANGE">
+                    <a:fld id="{596A1E67-C364-494E-8958-870FD5E7534D}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4057,6 +4087,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -4069,7 +4100,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5461EEC4-2F31-4FB6-96E7-6490135FE568}" type="CELLRANGE">
+                    <a:fld id="{D218F8EB-CD55-4163-A853-13AC2121850C}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4089,6 +4120,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -4101,7 +4133,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{289F91C8-898A-40DB-B4B6-919D86B07DD4}" type="CELLRANGE">
+                    <a:fld id="{168E2E73-0781-46C2-901F-ECAEEF75F6A4}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4121,6 +4153,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -4133,7 +4166,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{65BFAECB-BE5F-4C1B-ADB9-CD1A144231E0}" type="CELLRANGE">
+                    <a:fld id="{257C49B0-866D-4927-BA5B-F53CB62568C9}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4153,6 +4186,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -4165,7 +4199,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{83D70C4E-C362-4297-A61D-05DA5C4EAE54}" type="CELLRANGE">
+                    <a:fld id="{5A10F8A0-C85A-40EC-B8AE-98BF3B5BBA2E}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4185,6 +4219,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -4197,7 +4232,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{61E79470-04DD-4DC3-B51C-1614D688CE5C}" type="CELLRANGE">
+                    <a:fld id="{4BAA38B2-6BA3-407E-B390-61888456E397}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4217,6 +4252,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -4229,7 +4265,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CBDF0035-7324-48BE-B1C5-47806C8D6BC3}" type="CELLRANGE">
+                    <a:fld id="{85CFE674-4302-408D-A0BC-B4DED12FDEBC}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4249,6 +4285,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -4261,7 +4298,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E033D9C8-70B9-42F6-951C-8200D3F4D459}" type="CELLRANGE">
+                    <a:fld id="{DCF4AF50-FC6D-4A53-A3EB-56D6CDE1F7BD}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4281,6 +4318,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -4293,7 +4331,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6ECCD24A-A8A7-45F6-A28B-620A94F42479}" type="CELLRANGE">
+                    <a:fld id="{918BFFB4-EB52-442E-82B0-9FECBD8F37F6}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4313,6 +4351,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -4325,7 +4364,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CF7A7560-0C85-474F-B079-AED3C9351F9D}" type="CELLRANGE">
+                    <a:fld id="{9A9ABBAC-EA50-4064-A3AE-BA191B59ADEC}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4345,6 +4384,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -4357,7 +4397,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3AFF430B-B136-4F98-875D-E817647FDC7C}" type="CELLRANGE">
+                    <a:fld id="{EDAF1F91-D6A6-4FE0-ABBF-796411C9FF55}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4377,6 +4417,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -4389,7 +4430,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ECE33695-64F4-4DF7-AEB0-D8C12538C843}" type="CELLRANGE">
+                    <a:fld id="{E2C05BD9-428E-475E-BAFE-C13E96B444D7}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4409,6 +4450,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -4421,7 +4463,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{24DB3278-7998-4182-A4EC-B9AAB4D730FC}" type="CELLRANGE">
+                    <a:fld id="{74B73163-3A8A-4958-AABA-8F1165AD44A5}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4441,6 +4483,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -4453,7 +4496,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4E205D14-EF1E-41E2-B6AB-A7F80E3676F0}" type="CELLRANGE">
+                    <a:fld id="{087E1F86-AE20-4998-BFC2-060E3598D059}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4473,6 +4516,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -4485,7 +4529,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7DA60F56-8671-4413-919D-2BADCCE8ACB9}" type="CELLRANGE">
+                    <a:fld id="{9C766E76-5302-4227-A98C-125B85340BCC}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4505,6 +4549,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -4517,7 +4562,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7E8F729E-7307-4975-BB98-2A269FEACC4E}" type="CELLRANGE">
+                    <a:fld id="{6BB323D9-E141-476B-BC66-8643E855C161}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4537,6 +4582,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -4549,7 +4595,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D691199F-9AF0-4A47-BEC0-3140C4E50571}" type="CELLRANGE">
+                    <a:fld id="{EC3D87FF-43DC-4896-90B2-D7B5D6456C87}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4569,6 +4615,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -4612,6 +4659,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -5093,12 +5141,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="416985680"/>
-        <c:axId val="416987248"/>
+        <c:axId val="418013672"/>
+        <c:axId val="418014064"/>
         <c:extLst/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="416985680"/>
+        <c:axId val="418013672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5211,12 +5259,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="416987248"/>
+        <c:crossAx val="418014064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="416987248"/>
+        <c:axId val="418014064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5329,7 +5377,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="416985680"/>
+        <c:crossAx val="418013672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5408,7 +5456,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>スタバ</a:t>
+              <a:t>ドトール</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP"/>
@@ -5416,7 +5464,2493 @@
             </a:r>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>コメダ（人口</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>10</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>万人あたり）</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.5775588889588832E-2"/>
+          <c:y val="8.1286733992631227E-2"/>
+          <c:w val="0.93669462451267627"/>
+          <c:h val="0.88066122092274701"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ドトール×コメダ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                  <a:alpha val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{17716FEC-C202-4428-A7D3-B29C9DBDF4C7}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A197C968-F782-4B4C-85EE-CD2EF92A182E}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{347FCCB4-B27B-46FE-BD5A-E38716F8C2CF}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8E8F1D03-D29B-4337-B171-D880923500EC}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E65C3E6B-8D47-4F30-97CA-8058ECAB1B90}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B36E7331-70F4-47C4-A128-14B0CAF10864}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C194DD4D-254A-44B9-B022-30FAB243C938}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{17022CC5-0DE9-498B-BE25-7AE54E3D6536}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E17CA8E7-00E8-42A4-83C5-412129195375}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6182DBD7-0FAE-4861-B3EC-D701BADF65E6}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{98854D6C-40B7-4390-8D6E-66968F31132B}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{855B3F7C-292C-4D02-9662-57A55D9E6C79}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B6C461E4-4DCB-4720-BC27-77C4ACA4C62F}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8CE0E3CF-DA33-4C90-8450-01A36DC270B2}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{14AEA6B4-2163-436D-828C-8B37D5D3F0F5}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{097AD0C8-C12E-4BF9-A9A7-75A83A4519A4}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{187F8D70-44EE-4CFC-8A89-4C131F8B1CA8}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2D47C2A9-D71F-41E7-8C6F-89773339A2B9}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{949695C9-DAB4-4975-A88E-C20F2997B9BE}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2F83DDAA-6886-4F53-8C36-9B7FEAE774BB}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="20"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{103A6F2F-B668-4015-995D-1AB0BC804D50}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{500D9648-FD62-47D5-806E-F5A17A5E770B}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="22"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{EE5336E2-BCF9-4282-8FA9-7384E68AAF5C}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="23"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6466828B-F532-4DFB-9A2E-D3A958C8E0FD}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{867804E2-7F99-4F43-A5B2-1F955C8FDA3F}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="25"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0F56BDDE-D76B-4C29-81B2-A074205C329C}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="26"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C2360137-796A-4C0B-B9C8-85547C1C320C}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="27"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B9D7E606-3D87-4F46-9C50-4B2B2B674B82}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="28"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E8C3B184-296E-47B7-B49A-9DAD936F7948}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="29"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{ADB373EA-EBB3-4686-BC13-BD779D1764BB}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="30"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{AA76023D-E0B7-438A-A326-2C4F6EC4599E}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="31"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{856B86C3-DE2D-4B21-A86A-1D717FFCD7F5}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="32"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{04C55E5C-902F-4566-9101-4F814C54E338}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="33"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F9B2423D-ED15-43E5-BD83-A635880ACDDC}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="34"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D32201D8-DADB-4CD5-B3CE-85D658A5B8BC}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="35"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{436539C1-BC64-4922-A6DC-55016689A5E4}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="36"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6BB48396-7056-4422-9BF3-757E850F0F88}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="37"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{01845A66-6F6B-488C-AD86-2E39C9695002}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="38"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0332AA74-193B-44CF-954E-54F573EF5246}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="39"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DC4B4964-6A11-4521-B2DB-BD992E1B9A7B}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="40"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{EB736095-72C0-4EFC-B2BC-92E4EAA65EBC}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="41"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{39EAE483-4CB7-4AC8-ACB8-9BC4579D4553}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="42"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A3AE254A-A901-4EB6-968B-CEAE844404C1}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="43"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7F389A72-88E1-45D1-96EA-6073A481FD0E}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="44"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7BCBE48B-DBC7-489F-9098-613B2E590C79}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="45"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FFD706D5-3779-47B1-B551-EFC0D880E94B}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="46"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2930DF85-17E9-4B1C-A70F-E72D4288667F}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>人口10万人あたりを計算して追加!$I$2:$I$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>0.46820521397071918</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99334686832117502</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71184003530726581</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1677796616034049</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19703327005281476</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0840265080615439</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3023003833972329</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.37274400924134055</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.50359110819252084</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35165559453909001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0729306257996898</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2382933650336434</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.7177321745741438</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9081318473311342</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.26300897167437209</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.56100352310212509</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.34770575053155517</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.37938282002837781</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.23842932299185882</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.18920222880225529</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.58412665034032674</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.53432860942315219</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.64884849255280841</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.38162341510432762</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.0440641432480883E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.8583181957215178</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.91458829299886057</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.53670066486478363</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.5103156666909674</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.4102252752098815</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.52555603828850928</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.1446706933342978</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.41653237836343388</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.49142705502508732</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35811565273381907</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.13203464060830999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.20136829758207017</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.1434371411830265</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.27575214845392665</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.66266817884946383</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.24001766530016608</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.36258079206499189</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.16767420231792818</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.17106327801717133</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.35970964237667358</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.30195278907752215</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.47569342510139068</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>人口10万人あたりを計算して追加!$J$2:$J$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>0.14982566847063014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9093337256362861E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21625549288951937</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.8516635026407381E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27100662701538597</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3125520920153359</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.40662982826328065</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.50359110819252084</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35165559453909001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36669780881761554</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.38101334308727491</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3813058640588865</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.37072275891004891</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.35067862889916279</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.56100352310212509</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.69541150106311034</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.75876564005675562</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.47685864598371763</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.4730055720056382</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5576710675742049</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.77477648366357066</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.1780334329117141</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.6355289218756899</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1270502629196941</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.58521695162830767</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.56456067469065463</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.51881064270262423</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.94772909528322524</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.820450550419763</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.70074138438467903</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.72335346667148903</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.41653237836343388</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.38612125751971149</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.6446081749208743</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.79220784364985997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.50342074395517544</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.35859285295756627</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.41362822268089</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.54572673552308792</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.36002649795024916</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.21754847523899515</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.27945700386321365</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.34212655603434267</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.35970964237667358</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.60390557815504431</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.795620358591295E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>人口10万人あたりを計算して追加!$B$2:$B$48</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="47"/>
+                  <c:pt idx="0">
+                    <c:v>北海道</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>青森県</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>岩手県</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>宮城県</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>秋田県</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>山形県</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>福島県</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>茨城県</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>栃木県</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>群馬県</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>埼玉県</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>千葉県</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>東京都</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>神奈川県</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>新潟県</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>富山県</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>石川県</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>福井県</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>山梨県</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>長野県</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>岐阜県</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>静岡県</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>愛知県</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>三重県</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>滋賀県</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>京都府</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>大阪府</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>兵庫県</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>奈良県</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>和歌山県</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>鳥取県</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>島根県</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>岡山県</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>広島県</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>山口県</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>徳島県</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>香川県</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>愛媛県</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>高知県</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>福岡県</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>佐賀県</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>長崎県</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>熊本県</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>大分県</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>宮崎県</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>鹿児島県</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>沖縄県</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="r"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="423894208"/>
+        <c:axId val="423896560"/>
+        <c:extLst/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="423894208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>ドトールの店舗数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="423896560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="423896560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>コメダの店舗数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="423894208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
               <a:t>ドトール</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>×</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>スタバ</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5504,8 +8038,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{942C6D2C-F279-47B7-99A0-0DFC8CE13801}" type="CELLRANGE">
-                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                    <a:fld id="{54997128-382D-4A92-BD89-EAB5AE3944A0}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -5536,7 +8070,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E4B3BD5C-83C3-43AB-BC04-10A966CC3FA8}" type="CELLRANGE">
+                    <a:fld id="{0ACBA310-8F15-4FF6-8F56-D3321ED1FD34}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5556,6 +8090,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -5568,7 +8103,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5E4D4415-4DD2-451B-BA0B-BF281FA39374}" type="CELLRANGE">
+                    <a:fld id="{88206F7E-85F6-4E87-BEDE-A32095B37758}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5588,6 +8123,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -5600,7 +8136,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{66788B09-3222-4C9A-9651-F81144FB65DE}" type="CELLRANGE">
+                    <a:fld id="{FA4D6CC8-0472-42A6-81C2-D00BB27EE315}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5620,6 +8156,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -5637,8 +8174,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8E77E127-3C60-4FD0-BE8C-01701BE50994}" type="CELLRANGE">
-                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                    <a:fld id="{FCFF6E6B-4A0A-43F1-B30A-9AD41F3A7C1F}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -5674,8 +8211,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{74D54E74-10D0-4F6E-BCE2-E57F8854506D}" type="CELLRANGE">
-                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                    <a:fld id="{ECE86E4B-A536-4D4D-8EEB-CA13FF907CF9}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -5706,7 +8243,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CC529CC7-3FB4-4F17-81AC-3F2D32C218F1}" type="CELLRANGE">
+                    <a:fld id="{6DFA6435-7162-4ABB-B778-5DA40FFC8C16}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5726,6 +8263,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -5738,7 +8276,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{35F088A9-232F-40A7-B0AC-F1D329224B20}" type="CELLRANGE">
+                    <a:fld id="{48DCD3BB-32C7-4062-BCD8-28E57CD07529}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5758,6 +8296,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -5770,7 +8309,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5BC4D07A-9868-4CED-A289-CA80EE852EC5}" type="CELLRANGE">
+                    <a:fld id="{5067A74F-F48E-4922-8DF9-5019C9F05FCF}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5790,6 +8329,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -5802,7 +8342,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{35A9C070-850A-481D-81E0-CC31E56776B6}" type="CELLRANGE">
+                    <a:fld id="{4F42D04F-744E-4E14-994F-99D391957C5E}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5822,6 +8362,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -5839,8 +8380,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D19751CA-7D10-475A-AD72-34B9C9D9B866}" type="CELLRANGE">
-                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                    <a:fld id="{907FCD4C-FD2D-4C0A-8E17-4E0D5E224357}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -5876,8 +8417,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{366FF508-AE19-4A28-A573-CCF1EE9D05A2}" type="CELLRANGE">
-                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                    <a:fld id="{1D3B0903-CE7B-4268-B69B-2D28A9F00265}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -5908,7 +8449,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E7EF82BB-E777-4DC3-809E-4AD68A7C479D}" type="CELLRANGE">
+                    <a:fld id="{6E503C36-8602-4570-8D16-0E8477E220CC}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5928,6 +8469,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -5940,7 +8482,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2E3AF9B2-889E-40A3-9FD8-31FEADEC03F8}" type="CELLRANGE">
+                    <a:fld id="{382448D4-D846-4E9E-A08C-970616B90AFF}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5960,6 +8502,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -5972,7 +8515,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{279A77EB-2A0E-4884-8414-D48831CEF77D}" type="CELLRANGE">
+                    <a:fld id="{389BC53E-F6B3-418A-9FCD-B5A3AF55F471}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5992,6 +8535,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -6004,7 +8548,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EB08667B-666E-45B5-99AC-84C80BF50384}" type="CELLRANGE">
+                    <a:fld id="{F9080254-D479-48E1-9F24-317FD16D15D4}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6024,6 +8568,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -6036,7 +8581,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{54531241-6BB9-477F-9BC6-B467FD06DDA9}" type="CELLRANGE">
+                    <a:fld id="{81EAE867-8644-46E1-9942-89D6E12AE83C}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6056,6 +8601,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -6068,7 +8614,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3DB5E6FE-35EE-4319-A591-5F5A17E08259}" type="CELLRANGE">
+                    <a:fld id="{B921A46C-46B9-4504-AD58-3701C1FF3CFF}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6088,6 +8634,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -6100,7 +8647,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5A9BA11E-2E92-4764-8B93-CE3FC519578B}" type="CELLRANGE">
+                    <a:fld id="{AC79B269-E51B-4038-BA35-608AD14E88AF}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6120,6 +8667,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -6132,7 +8680,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DBE0338E-FE02-4DF5-A6F7-10C8326D8584}" type="CELLRANGE">
+                    <a:fld id="{68D86D30-14C7-4CA0-9005-1A7DBF5C796D}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6152,6 +8700,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -6164,7 +8713,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FB871314-904D-4B1B-A852-DBFA3608A918}" type="CELLRANGE">
+                    <a:fld id="{888D416E-2631-4EBC-9AC1-A02FB887DA27}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6184,6 +8733,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -6196,7 +8746,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C36503B2-C43A-4B77-993E-861292A99025}" type="CELLRANGE">
+                    <a:fld id="{7DB7FA91-3441-4DB6-BCD6-BDCC6F6EC589}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6216,6 +8766,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -6228,7 +8779,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{101DB05F-08C4-4E72-AEA7-018095C72528}" type="CELLRANGE">
+                    <a:fld id="{8A9759AD-7C67-4C5C-A381-AF5F4B022941}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6248,6 +8799,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -6260,7 +8812,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{38696E06-8175-459D-9E08-0D775475E2C7}" type="CELLRANGE">
+                    <a:fld id="{C33E0CC3-350E-4C6E-96A6-39E9AA948437}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6280,6 +8832,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -6292,7 +8845,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{42A22DC3-AF79-4998-ADBE-433FA13BD23F}" type="CELLRANGE">
+                    <a:fld id="{2F0C1F62-8A7B-4A16-AB53-90C9765A6901}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6312,6 +8865,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -6324,7 +8878,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1AD981D1-B900-4A60-98E0-7DB2077F136B}" type="CELLRANGE">
+                    <a:fld id="{6885BE27-D851-4C9F-991D-0F8CC79344BE}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6344,6 +8898,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -6356,7 +8911,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{98003257-B5B8-4562-AD21-669E90708357}" type="CELLRANGE">
+                    <a:fld id="{A9100A89-8D79-4F22-A674-712B7901621B}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6376,6 +8931,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -6388,7 +8944,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{83155A12-ED0A-4DE7-AAEB-871A8373AD41}" type="CELLRANGE">
+                    <a:fld id="{CACB566D-0149-4AB2-805B-9ACE6224477F}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6408,6 +8964,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -6420,7 +8977,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7B7073AC-EAEB-4349-9280-E51E0F9BC585}" type="CELLRANGE">
+                    <a:fld id="{CA1969F9-F60A-4B03-A365-3DAFE2E16CDE}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6440,6 +8997,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -6452,7 +9010,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{15C3903A-05EB-4844-8FFE-9924D2BD7334}" type="CELLRANGE">
+                    <a:fld id="{358C12CF-1F93-4461-853A-2541D7A1C4C0}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6472,6 +9030,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -6484,7 +9043,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{56D12238-0624-4D57-9F73-90B920956847}" type="CELLRANGE">
+                    <a:fld id="{645DA604-6BBE-4EF2-9250-7E24D1D8A3FC}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6504,6 +9063,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -6516,7 +9076,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{17DA144C-9E8F-49A5-8605-25A70C36766E}" type="CELLRANGE">
+                    <a:fld id="{E3E072D7-47B8-45D3-8B32-2A9DFB68144A}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6536,6 +9096,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -6548,7 +9109,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2D68C8C5-9D9A-4F05-BC30-1E7F56A5BE05}" type="CELLRANGE">
+                    <a:fld id="{BC81FF77-9209-4BF7-9977-9EE3F8BCF1B2}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6568,6 +9129,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -6580,7 +9142,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E85A4BEA-7065-4589-A27A-E099BCEB747A}" type="CELLRANGE">
+                    <a:fld id="{20473B44-EEA0-435F-947E-E5CB5AAEEAB7}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6600,6 +9162,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -6612,7 +9175,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{20638BC8-BD47-4320-8723-394DED914264}" type="CELLRANGE">
+                    <a:fld id="{97468129-0DA2-4765-BB8E-7C2350E2D290}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6632,6 +9195,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -6644,7 +9208,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E9758202-E8FE-4392-9C1F-52F5B8643625}" type="CELLRANGE">
+                    <a:fld id="{52E2E08E-23A1-450A-BD03-41CBC00B472E}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6664,6 +9228,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -6676,7 +9241,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ADA5D451-8163-4B3D-8F63-C2D303AC317F}" type="CELLRANGE">
+                    <a:fld id="{23F7DCA5-CACB-407E-9298-4BFB5AC02C81}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6696,6 +9261,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -6708,7 +9274,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DC27F57C-395F-4A63-9650-9A35B7E96107}" type="CELLRANGE">
+                    <a:fld id="{5186DE55-753B-4C88-8D2D-B6479CDA526A}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6728,6 +9294,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -6740,7 +9307,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AD2A3BBF-920F-4D40-A28F-94024827DB16}" type="CELLRANGE">
+                    <a:fld id="{864B6003-A3A6-4669-8DFF-AA7B108F5BE8}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6760,6 +9327,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -6772,7 +9340,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1FD1EC69-B982-4CA5-A2E7-D8EC34F69697}" type="CELLRANGE">
+                    <a:fld id="{1831BD09-1A19-42E6-80EA-26BC1105C8A2}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6792,6 +9360,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -6804,7 +9373,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{80235956-5028-4D3C-8A29-DEFC3D679A16}" type="CELLRANGE">
+                    <a:fld id="{6AD54CD3-4151-4BA5-9218-51A8F9D5A59A}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6824,6 +9393,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -6836,7 +9406,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3D4416E9-00C3-49AA-85C6-D2F81291EFFD}" type="CELLRANGE">
+                    <a:fld id="{BE582166-3260-4B89-95EB-ED2698267B3F}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6856,6 +9426,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -6868,7 +9439,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{417B1662-3D87-423C-ABBA-40567C34E0FA}" type="CELLRANGE">
+                    <a:fld id="{66CF45C2-FD52-4D6E-BCBB-4CDD8643754C}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6888,6 +9459,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -6900,7 +9472,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8C3ED94E-720B-4F2C-813A-D02D5E7EEAE5}" type="CELLRANGE">
+                    <a:fld id="{64202DD0-5F9F-4D45-9FB4-5B946A3B3419}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6920,6 +9492,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -6932,7 +9505,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{256F5E0C-8A1F-4302-826E-7255371BBE8D}" type="CELLRANGE">
+                    <a:fld id="{35372FD5-5C10-4E83-A66F-5D9B1A21F1C1}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6952,6 +9525,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -6964,7 +9538,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{53A631C7-AACB-44A4-9BC2-18DDD3BFE8D7}" type="CELLRANGE">
+                    <a:fld id="{5CF58858-C6B8-4CAF-A9B3-1B35B5D43DC5}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6984,6 +9558,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -6996,7 +9571,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{23644BDA-7CFE-4086-8C29-75397B853929}" type="CELLRANGE">
+                    <a:fld id="{ABBA59C2-CA42-4F8C-BB0C-A1EDC480B2FA}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7016,6 +9591,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -7059,6 +9635,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -7540,12 +10117,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="416982152"/>
-        <c:axId val="416986072"/>
+        <c:axId val="418015240"/>
+        <c:axId val="418014456"/>
         <c:extLst/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="416982152"/>
+        <c:axId val="418015240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7658,12 +10235,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="416986072"/>
+        <c:crossAx val="418014456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="416986072"/>
+        <c:axId val="418014456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7776,7 +10353,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="416982152"/>
+        <c:crossAx val="418015240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7820,7 +10397,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -7855,7 +10432,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>スタバ</a:t>
+              <a:t>ドトール</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP"/>
@@ -7863,7 +10440,15 @@
             </a:r>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>ドトール</a:t>
+              <a:t>スタバ（人口</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>10</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>万人あたり）</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7952,7 +10537,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{D738B0D5-1E93-4C6C-9A64-6248FCB11DFF}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -7970,7 +10555,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -7984,7 +10568,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{45FC1BDD-27FC-435D-9499-EDDE63773DC4}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -8002,7 +10586,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -8016,7 +10599,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{88976A0B-2F38-459F-A355-E6A2CDBDD3FC}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -8034,7 +10617,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -8048,7 +10630,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{F7B4F27A-9146-469F-9351-E8CCC83437CE}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -8066,7 +10648,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -8080,7 +10661,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{4D637803-DCE3-4AA4-9214-E67643FEA3B3}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -8098,7 +10679,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -8112,7 +10692,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{05D30F1D-AC74-468F-B9B9-1AA4A4385C64}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -8130,7 +10710,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -8144,7 +10723,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{C1993E00-E5CF-483C-A67F-679A6965DFAC}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -8162,7 +10741,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -8176,7 +10754,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{27AFD64C-C2E3-49A9-A561-6B658FB6D1E5}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -8194,7 +10772,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -8208,7 +10785,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{79872537-8A5C-40AE-8E17-186709815412}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -8226,7 +10803,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -8240,7 +10816,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{E38D7EC8-0ED4-4DC2-8ECA-B7BDEA3A9DE3}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -8258,7 +10834,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -8272,7 +10847,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{B4A9ADC6-BAC8-4E25-9E28-A711F057034C}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -8290,7 +10865,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -8304,7 +10878,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{03EEF1CE-3B8E-4809-965E-B3A798220D78}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -8322,7 +10896,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -8336,7 +10909,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{BD3B66E0-699A-45B7-9E34-6352C5DDEF81}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -8354,7 +10927,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -8368,7 +10940,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{B852A891-A45A-4911-A268-E4B246CE10B2}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -8386,7 +10958,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -8400,7 +10971,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{E240E13B-C0B6-4E33-82A1-518F66AE3246}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -8418,7 +10989,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -8432,7 +11002,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{038D6604-560E-46E3-80A7-3BDFBD236C5F}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -8450,7 +11020,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -8464,7 +11033,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{E6ED257A-9CC7-4756-9267-BE9642F5CD87}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -8482,7 +11051,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -8496,7 +11064,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{1EC576AD-15D0-4CF2-AD5D-365BBC4A7DE2}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -8514,7 +11082,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -8528,7 +11095,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{69E936EE-2C68-48E5-ACAB-2C18890D61D6}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -8546,7 +11113,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -8560,7 +11126,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{D92D3F09-4927-4D51-A6F8-5D468FF7A9E2}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -8578,7 +11144,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -8592,7 +11157,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{D1E0BE69-7BC6-4BCE-AA45-D9946B9BDAE5}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -8610,7 +11175,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -8624,7 +11188,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{F1DBBD20-96F9-41C1-BE40-7E4F730D68CF}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -8642,7 +11206,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -8656,7 +11219,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{1C52297F-95F8-4C59-9892-C32A8087EB06}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -8674,7 +11237,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -8688,7 +11250,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{6A054321-E467-4880-9A0C-33730BF2D469}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -8706,7 +11268,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -8720,7 +11281,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{9258FA9D-6B0A-4CD7-A0C1-318D88CB39A2}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -8738,7 +11299,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -8752,7 +11312,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{77AA7E62-2680-40A2-BAE5-F038B0C9CD5A}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -8770,7 +11330,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -8784,7 +11343,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{0E0391E5-EBD2-4A2D-9692-398B5F32DD32}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -8802,7 +11361,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -8816,7 +11374,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{D5440FDA-DA10-4439-A0DD-6513A1A65C5F}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -8834,7 +11392,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -8848,7 +11405,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{6E157EE2-DF0D-48A9-8972-36C48B2CEB0B}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -8866,7 +11423,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -8880,7 +11436,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{3450D76F-56EC-4B8A-A8C3-4272E52D450D}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -8898,7 +11454,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -8912,7 +11467,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{664ABB53-9EA1-4711-B659-B3C395F4E818}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -8930,7 +11485,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -8944,7 +11498,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{71ECB0C9-70A7-49A4-BA51-537A4F54D7B0}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -8962,7 +11516,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -8976,7 +11529,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{5CDABA25-FA08-45B8-9668-5C66FC5D205B}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -8994,7 +11547,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -9008,7 +11560,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{5EC5676E-2445-4496-8727-E479752428D4}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -9026,7 +11578,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -9040,7 +11591,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{E91FB66F-1A4B-4594-A532-C3695F8A0808}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -9058,7 +11609,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -9072,7 +11622,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{1EC7A4F3-27D5-400F-A145-0E033ACA6EDB}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -9090,7 +11640,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -9104,7 +11653,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{1E32AC78-42E9-4321-8FA7-2B5BA9E345FF}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -9122,7 +11671,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -9136,7 +11684,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{56F5C8FB-DF40-45E7-8796-8251C7DB1EFC}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -9154,7 +11702,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -9168,7 +11715,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{46BC8608-8144-402F-BC44-C86EF01A5E8B}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -9186,7 +11733,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -9200,7 +11746,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{6FB748DF-B067-48CA-8555-A14106646078}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -9218,7 +11764,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -9232,7 +11777,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{2A09E975-AC78-414C-8FCA-E2FBCD487B72}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -9250,7 +11795,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -9264,7 +11808,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{DC5ADE64-762D-4B34-9A49-94E63A5CE103}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -9282,7 +11826,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -9296,7 +11839,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{F7B04623-29B9-490B-9783-1B9D81A455D5}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -9314,7 +11857,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -9328,7 +11870,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{4F81A3ED-71DC-4904-9502-F0E4D11AFBC7}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -9346,7 +11888,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -9360,7 +11901,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{A88F892F-C006-4DBC-BED0-B475E179F950}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -9378,7 +11919,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -9392,7 +11932,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{571B93F5-BC69-452F-AEDC-C27FF429FE79}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -9410,7 +11950,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -9424,7 +11963,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{D0042B00-C7CD-413E-9559-63B80533A302}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -9442,7 +11981,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -9485,7 +12023,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -9507,300 +12044,300 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>人口10万人あたりを計算して追加!$F$2:$F$48</c:f>
+              <c:f>人口10万人あたりを計算して追加!$I$2:$I$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="47"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>0.46820521397071918</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>0.99334686832117502</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>0.71184003530726581</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27</c:v>
+                  <c:v>1.1677796616034049</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>0.19703327005281476</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>1.0840265080615439</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25</c:v>
+                  <c:v>1.3023003833972329</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11</c:v>
+                  <c:v>0.37274400924134055</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>0.50359110819252084</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>0.35165559453909001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>79</c:v>
+                  <c:v>1.0729306257996898</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>78</c:v>
+                  <c:v>1.2382933650336434</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>507</c:v>
+                  <c:v>3.7177321745741438</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>175</c:v>
+                  <c:v>1.9081318473311342</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6</c:v>
+                  <c:v>0.26300897167437209</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6</c:v>
+                  <c:v>0.56100352310212509</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4</c:v>
+                  <c:v>0.34770575053155517</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3</c:v>
+                  <c:v>0.37938282002837781</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2</c:v>
+                  <c:v>0.23842932299185882</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4</c:v>
+                  <c:v>0.18920222880225529</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12</c:v>
+                  <c:v>0.58412665034032674</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>20</c:v>
+                  <c:v>0.53432860942315219</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>49</c:v>
+                  <c:v>0.64884849255280841</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7</c:v>
+                  <c:v>0.38162341510432762</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>7.0440641432480883E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>22</c:v>
+                  <c:v>0.8583181957215178</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>81</c:v>
+                  <c:v>0.91458829299886057</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>30</c:v>
+                  <c:v>0.53670066486478363</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7</c:v>
+                  <c:v>0.5103156666909674</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4</c:v>
+                  <c:v>0.4102252752098815</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3</c:v>
+                  <c:v>0.52555603828850928</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1</c:v>
+                  <c:v>0.1446706933342978</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8</c:v>
+                  <c:v>0.41653237836343388</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>14</c:v>
+                  <c:v>0.49142705502508732</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5</c:v>
+                  <c:v>0.35811565273381907</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1</c:v>
+                  <c:v>0.13203464060830999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2</c:v>
+                  <c:v>0.20136829758207017</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2</c:v>
+                  <c:v>0.1434371411830265</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2</c:v>
+                  <c:v>0.27575214845392665</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>34</c:v>
+                  <c:v>0.66266817884946383</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2</c:v>
+                  <c:v>0.24001766530016608</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5</c:v>
+                  <c:v>0.36258079206499189</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3</c:v>
+                  <c:v>0.16767420231792818</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2</c:v>
+                  <c:v>0.17106327801717133</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4</c:v>
+                  <c:v>0.35970964237667358</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5</c:v>
+                  <c:v>0.30195278907752215</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7</c:v>
+                  <c:v>0.47569342510139068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>人口10万人あたりを計算して追加!$E$2:$E$48</c:f>
+              <c:f>人口10万人あたりを計算して追加!$H$2:$H$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="47"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>0.65548729955900686</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>0.6877016780685058</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>0.63274669805090289</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22</c:v>
+                  <c:v>0.95152416871388534</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>0.68961644518485166</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>0.63234879636923391</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>0.46882813802300383</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31</c:v>
+                  <c:v>1.0504603896801417</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24</c:v>
+                  <c:v>1.2086186596620501</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15</c:v>
+                  <c:v>0.75354770258376436</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>66</c:v>
+                  <c:v>0.89637242155417118</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>66</c:v>
+                  <c:v>1.047786693490006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>320</c:v>
+                  <c:v>2.3464976249777632</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>104</c:v>
+                  <c:v>1.1339754978425025</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13</c:v>
+                  <c:v>0.56985277196113948</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9</c:v>
+                  <c:v>0.84150528465318775</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10</c:v>
+                  <c:v>0.86926437632888798</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6</c:v>
+                  <c:v>0.75876564005675562</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11</c:v>
+                  <c:v>1.3113612764552236</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>0.94601114401127639</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13</c:v>
+                  <c:v>0.63280387120202064</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>31</c:v>
+                  <c:v>0.82820934460588591</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>95</c:v>
+                  <c:v>1.2579715671942202</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>16</c:v>
+                  <c:v>0.87228209166703463</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>14</c:v>
+                  <c:v>0.98616898005473241</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>33</c:v>
+                  <c:v>1.2874772935822769</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>103</c:v>
+                  <c:v>1.1629949898627485</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>50</c:v>
+                  <c:v>0.89450110810797268</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11</c:v>
+                  <c:v>0.80192461908580603</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7</c:v>
+                  <c:v>0.71789423161729271</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4</c:v>
+                  <c:v>0.70074138438467903</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4</c:v>
+                  <c:v>0.5786827733371912</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>12</c:v>
+                  <c:v>0.62479856754515084</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>24</c:v>
+                  <c:v>0.84244638004300698</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6</c:v>
+                  <c:v>0.42973878328058285</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4</c:v>
+                  <c:v>0.52813856243323998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8</c:v>
+                  <c:v>0.80547319032828069</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>10</c:v>
+                  <c:v>0.71718570591513253</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4</c:v>
+                  <c:v>0.5515042969078533</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>48</c:v>
+                  <c:v>0.93553154661100768</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9</c:v>
+                  <c:v>1.0800794938507474</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>8</c:v>
+                  <c:v>0.58012926730398706</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>10</c:v>
+                  <c:v>0.5589140077264273</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>7</c:v>
+                  <c:v>0.59872147306009971</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5</c:v>
+                  <c:v>0.44963705297084194</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5</c:v>
+                  <c:v>0.30195278907752215</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>21</c:v>
+                  <c:v>1.4270802753041718</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9966,12 +12503,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="489811400"/>
-        <c:axId val="489814928"/>
+        <c:axId val="418018376"/>
+        <c:axId val="418018768"/>
         <c:extLst/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="489811400"/>
+        <c:axId val="418018376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10084,12 +12621,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489814928"/>
+        <c:crossAx val="418018768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="489814928"/>
+        <c:axId val="418018768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10202,7 +12739,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489811400"/>
+        <c:crossAx val="418018376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10407,6 +12944,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -13026,11 +15603,527 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="73" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="77" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13041,7 +16134,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="73" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13052,7 +16145,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="73" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="77" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13063,7 +16156,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="73" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="77" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13074,7 +16167,18 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="73" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="77" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="77" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13085,7 +16189,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9290137" cy="6067295"/>
+    <xdr:ext cx="9302338" cy="6073734"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="グラフ 1"/>
@@ -13112,7 +16216,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9290137" cy="6067295"/>
+    <xdr:ext cx="9302338" cy="6073734"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="グラフ 1"/>
@@ -13139,7 +16243,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9290137" cy="6067295"/>
+    <xdr:ext cx="9302338" cy="6073734"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="グラフ 1"/>
@@ -13166,7 +16270,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9290137" cy="6067295"/>
+    <xdr:ext cx="9302338" cy="6073734"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="グラフ 1"/>
@@ -13193,7 +16297,34 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9290137" cy="6067295"/>
+    <xdr:ext cx="9302338" cy="6073734"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9302338" cy="6073734"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="グラフ 1"/>
@@ -13286,13 +16417,13 @@
     <tableColumn id="5" name="スタバ"/>
     <tableColumn id="6" name="ドトール"/>
     <tableColumn id="7" name="コメダ"/>
-    <tableColumn id="8" name="S人口比" dataDxfId="0">
+    <tableColumn id="8" name="S人口比" dataDxfId="2">
       <calculatedColumnFormula>テーブル1[[#This Row],[スタバ]]/テーブル1[[#This Row],[人口]]*100000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="D人口比" dataDxfId="2">
+    <tableColumn id="9" name="D人口比" dataDxfId="1">
       <calculatedColumnFormula>テーブル1[[#This Row],[ドトール]]/テーブル1[[#This Row],[人口]]*100000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="K人口比" dataDxfId="1">
+    <tableColumn id="10" name="K人口比" dataDxfId="0">
       <calculatedColumnFormula>テーブル1[[#This Row],[コメダ]]/テーブル1[[#This Row],[人口]]*100000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13589,7 +16720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
